--- a/OCS/OCS_4.xlsx
+++ b/OCS/OCS_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim.Wan\Desktop\OpsProject\dccs_generator\OCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78E5D21-B8AC-4835-959B-F4CF9917C470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D9A92-471A-41D7-A088-4F9484391C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCS Input" sheetId="1" r:id="rId1"/>
@@ -110,21 +110,12 @@
     <t>SAP 6</t>
   </si>
   <si>
-    <t>GK-W527B</t>
-  </si>
-  <si>
     <t>C.MY.F14.DD.22.001.2094D</t>
   </si>
   <si>
     <t>Charging Mechanism</t>
   </si>
   <si>
-    <t>1 unit/day recur daily from start date 01/01/2023 to end phase 50</t>
-  </si>
-  <si>
-    <t>1  unit/day recur weekly on Monday Wednesday from start date 01/01/2023 to end date 01/01/2024</t>
-  </si>
-  <si>
     <t>Cost Group</t>
   </si>
   <si>
@@ -135,6 +126,15 @@
   </si>
   <si>
     <t>Description 11</t>
+  </si>
+  <si>
+    <t>GK-P527B</t>
+  </si>
+  <si>
+    <t>0.5 unit/day on end phase 15</t>
+  </si>
+  <si>
+    <t>1.2 unit/day on 2023/01/03</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -915,10 +915,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
@@ -955,7 +955,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>23</v>
@@ -992,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/OCS/OCS_4.xlsx
+++ b/OCS/OCS_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim.Wan\Desktop\OpsProject\dccs_generator\OCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D9A92-471A-41D7-A088-4F9484391C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752C82DD-9212-46E9-81F4-2079DC401EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCS Input" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>0.5 unit/day on end phase 15</t>
   </si>
   <si>
-    <t>1.2 unit/day on 2023/01/03</t>
+    <t>1.2 unit/day on 2022/04/01</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
